--- a/docs/mcode-r4/onco-core-EvidenceType-extension.xlsx
+++ b/docs/mcode-r4/onco-core-EvidenceType-extension.xlsx
@@ -137,7 +137,7 @@
     <t>EvidenceType</t>
   </si>
   <si>
-    <t>The type of evidence considered in making the determination.</t>
+    <t>Categorization of the kind of evidence used as input to the clinical judgment. This corresponds to both the S and O in SOAP.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
